--- a/Feature-Analysis/Resize Feature/s_12_right.xlsx
+++ b/Feature-Analysis/Resize Feature/s_12_right.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.77920138894</v>
+        <v>738157.77920138894</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.77978009265</v>
+        <v>738157.77978009265</v>
       </c>
       <c r="C3" s="0">
         <v>50.00000037252903</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.77996527776</v>
+        <v>738157.77996527776</v>
       </c>
       <c r="C4" s="0">
         <v>65.999994054436684</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.7803819445</v>
+        <v>738157.7803819445</v>
       </c>
       <c r="C5" s="0">
         <v>101.99999995529652</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.78078703699</v>
+        <v>738157.78078703699</v>
       </c>
       <c r="C6" s="0">
         <v>136.99999116361141</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.78120370372</v>
+        <v>738157.78120370372</v>
       </c>
       <c r="C7" s="0">
         <v>172.99999706447124</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.78163194447</v>
+        <v>738157.78163194447</v>
       </c>
       <c r="C8" s="0">
         <v>209.9999975413084</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.78189814813</v>
+        <v>738157.78189814813</v>
       </c>
       <c r="C9" s="0">
         <v>232.99999348819256</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.78231481486</v>
+        <v>738157.78231481486</v>
       </c>
       <c r="C10" s="0">
         <v>268.99999938905239</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.78271990735</v>
+        <v>738157.78271990735</v>
       </c>
       <c r="C11" s="0">
         <v>303.99999059736729</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.78313657409</v>
+        <v>738157.78313657409</v>
       </c>
       <c r="C12" s="0">
         <v>339.99999649822712</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.78340277774</v>
+        <v>738157.78340277774</v>
       </c>
       <c r="C13" s="0">
         <v>362.99999244511127</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.78380787035</v>
+        <v>738157.78380787035</v>
       </c>
       <c r="C14" s="0">
         <v>397.99999371170998</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.78422453708</v>
+        <v>738157.78422453708</v>
       </c>
       <c r="C15" s="0">
         <v>433.99999961256981</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.7846412037</v>
+        <v>738157.7846412037</v>
       </c>
       <c r="C16" s="0">
         <v>469.99999545514584</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.78504629631</v>
+        <v>738157.78504629631</v>
       </c>
       <c r="C17" s="0">
         <v>504.99999672174454</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.78531249997</v>
+        <v>738157.78531249997</v>
       </c>
       <c r="C18" s="0">
         <v>527.99999266862869</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.7857291667</v>
+        <v>738157.7857291667</v>
       </c>
       <c r="C19" s="0">
         <v>563.99999856948853</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.78612268518</v>
+        <v>738157.78612268518</v>
       </c>
       <c r="C20" s="0">
         <v>597.9999952018261</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.7865393518</v>
+        <v>738157.7865393518</v>
       </c>
       <c r="C21" s="0">
         <v>633.99999104440212</v>
@@ -15587,7 +15587,7 @@
         <v>2</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.78732638888</v>
+        <v>738157.78732638888</v>
       </c>
       <c r="C22" s="0">
         <v>701.99999436736107</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.78732638888</v>
+        <v>738157.78732638888</v>
       </c>
       <c r="C23" s="0">
         <v>701.99999436736107</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.78761574079</v>
+        <v>738157.78761574079</v>
       </c>
       <c r="C24" s="0">
         <v>726.99999958276749</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.78802083328</v>
+        <v>738157.78802083328</v>
       </c>
       <c r="C25" s="0">
         <v>761.99999079108238</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.78842592589</v>
+        <v>738157.78842592589</v>
       </c>
       <c r="C26" s="0">
         <v>796.99999205768108</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.7887731482</v>
+        <v>738157.7887731482</v>
       </c>
       <c r="C27" s="0">
         <v>827.00000032782555</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.78918981482</v>
+        <v>738157.78918981482</v>
       </c>
       <c r="C28" s="0">
         <v>862.99999617040157</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.78949074075</v>
+        <v>738157.78949074075</v>
       </c>
       <c r="C29" s="0">
         <v>888.99999596178532</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.78990740736</v>
+        <v>738157.78990740736</v>
       </c>
       <c r="C30" s="0">
         <v>924.99999180436134</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.7903240741</v>
+        <v>738157.7903240741</v>
       </c>
       <c r="C31" s="0">
         <v>960.99999770522118</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.79075231485</v>
+        <v>738157.79075231485</v>
       </c>
       <c r="C32" s="0">
         <v>997.99999818205833</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.7910185185</v>
+        <v>738157.7910185185</v>
       </c>
       <c r="C33" s="0">
         <v>1020.9999941289425</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.79141203698</v>
+        <v>738157.79141203698</v>
       </c>
       <c r="C34" s="0">
         <v>1054.9999907612801</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.79185185186</v>
+        <v>738157.79185185186</v>
       </c>
       <c r="C35" s="0">
         <v>1092.9999958723783</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.79224537034</v>
+        <v>738157.79224537034</v>
       </c>
       <c r="C36" s="0">
         <v>1126.9999925047159</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.79252314812</v>
+        <v>738157.79252314812</v>
       </c>
       <c r="C37" s="0">
         <v>1150.9999930858612</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.79292824073</v>
+        <v>738157.79292824073</v>
       </c>
       <c r="C38" s="0">
         <v>1185.9999943524599</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.79334490746</v>
+        <v>738157.79334490746</v>
       </c>
       <c r="C39" s="0">
         <v>1222.0000002533197</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.79376157408</v>
+        <v>738157.79376157408</v>
       </c>
       <c r="C40" s="0">
         <v>1257.9999960958958</v>
